--- a/xChanger.MVC/wwwroot/data/applicants.xlsx
+++ b/xChanger.MVC/wwwroot/data/applicants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Firstname</t>
   </si>
@@ -29,6 +29,21 @@
     <t>GroupName</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Joʻraboyev</t>
+  </si>
+  <si>
+    <t>bekjonxonkim@gmail.com</t>
+  </si>
+  <si>
+    <t>946744171</t>
+  </si>
+  <si>
+    <t>.NETT</t>
+  </si>
+  <si>
     <t>Axliddin</t>
   </si>
   <si>
@@ -41,7 +56,7 @@
     <t>955559241</t>
   </si>
   <si>
-    <t>45047</t>
+    <t>PHP</t>
   </si>
   <si>
     <t>G‘olibjon</t>
@@ -56,7 +71,7 @@
     <t>944404450</t>
   </si>
   <si>
-    <t>44593</t>
+    <t>JAVA</t>
   </si>
   <si>
     <t>Abror</t>
@@ -71,7 +86,7 @@
     <t>934436004</t>
   </si>
   <si>
-    <t>45017</t>
+    <t>C++</t>
   </si>
   <si>
     <t>Eldor</t>
@@ -86,7 +101,7 @@
     <t>915699291</t>
   </si>
   <si>
-    <t>45170</t>
+    <t>Javascript</t>
   </si>
   <si>
     <t>Abdiraxmonov</t>
@@ -122,7 +137,13 @@
     <t>9797</t>
   </si>
   <si>
-    <t>45139</t>
+    <t>Jasur</t>
+  </si>
+  <si>
+    <t>Sulaymonov</t>
+  </si>
+  <si>
+    <t>79797</t>
   </si>
 </sst>
 </file>
@@ -168,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -261,53 +282,87 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/xChanger.MVC/wwwroot/data/applicants.xlsx
+++ b/xChanger.MVC/wwwroot/data/applicants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Firstname</t>
   </si>
@@ -29,21 +29,6 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Joʻraboyev</t>
-  </si>
-  <si>
-    <t>bekjonxonkim@gmail.com</t>
-  </si>
-  <si>
-    <t>946744171</t>
-  </si>
-  <si>
-    <t>.NETT</t>
-  </si>
-  <si>
     <t>Axliddin</t>
   </si>
   <si>
@@ -86,22 +71,7 @@
     <t>934436004</t>
   </si>
   <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Eldor</t>
-  </si>
-  <si>
-    <t>Pardaev</t>
-  </si>
-  <si>
-    <t>eldorpardayev18@gmail.com</t>
-  </si>
-  <si>
-    <t>915699291</t>
-  </si>
-  <si>
-    <t>Javascript</t>
+    <t>C+++</t>
   </si>
   <si>
     <t>Abdiraxmonov</t>
@@ -113,34 +83,13 @@
     <t>909263751</t>
   </si>
   <si>
-    <t>Muhammadjon</t>
-  </si>
-  <si>
-    <t>Rahmatullayev</t>
-  </si>
-  <si>
-    <t>mirahmatullayev@gmail.com</t>
-  </si>
-  <si>
-    <t>939534688</t>
-  </si>
-  <si>
-    <t>Murod</t>
-  </si>
-  <si>
-    <t>Mamatqulov</t>
+    <t>Jasur</t>
+  </si>
+  <si>
+    <t>Sulaymonov</t>
   </si>
   <si>
     <t>mamatqulovmurod383@gmail.com</t>
-  </si>
-  <si>
-    <t>9797</t>
-  </si>
-  <si>
-    <t>Jasur</t>
-  </si>
-  <si>
-    <t>Sulaymonov</t>
   </si>
   <si>
     <t>79797</t>
@@ -189,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -265,104 +214,36 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/xChanger.MVC/wwwroot/data/applicants.xlsx
+++ b/xChanger.MVC/wwwroot/data/applicants.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Firstname</t>
   </si>
@@ -29,6 +29,21 @@
     <t>GroupName</t>
   </si>
   <si>
+    <t>Islombek</t>
+  </si>
+  <si>
+    <t>Joʻraboyev</t>
+  </si>
+  <si>
+    <t>bekjonxonkim@gmail.com</t>
+  </si>
+  <si>
+    <t>946744171</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
     <t>Axliddin</t>
   </si>
   <si>
@@ -71,7 +86,19 @@
     <t>934436004</t>
   </si>
   <si>
-    <t>C+++</t>
+    <t>Eldor</t>
+  </si>
+  <si>
+    <t>Pardaev</t>
+  </si>
+  <si>
+    <t>eldorpardayev18@gmail.com</t>
+  </si>
+  <si>
+    <t>915699291</t>
+  </si>
+  <si>
+    <t>Javascript</t>
   </si>
   <si>
     <t>Abdiraxmonov</t>
@@ -83,13 +110,37 @@
     <t>909263751</t>
   </si>
   <si>
+    <t>Muhammadjon</t>
+  </si>
+  <si>
+    <t>Rahmatullayev</t>
+  </si>
+  <si>
+    <t>mirahmatullayev@gmail.com</t>
+  </si>
+  <si>
+    <t>939534688</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>Murod</t>
+  </si>
+  <si>
+    <t>Mamatqulov</t>
+  </si>
+  <si>
+    <t>mamatqulovmurod383@gmail.com</t>
+  </si>
+  <si>
+    <t>9797</t>
+  </si>
+  <si>
     <t>Jasur</t>
   </si>
   <si>
     <t>Sulaymonov</t>
-  </si>
-  <si>
-    <t>mamatqulovmurod383@gmail.com</t>
   </si>
   <si>
     <t>79797</t>
@@ -138,7 +189,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -214,36 +265,104 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
